--- a/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
+++ b/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="480">
   <si>
     <t>Serie</t>
   </si>
@@ -1448,6 +1448,12 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P463"/>
+  <dimension ref="A1:P465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15398,7 +15404,7 @@
         <v>2.3</v>
       </c>
       <c r="E438">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="F438">
         <v>4</v>
@@ -15878,7 +15884,7 @@
         <v>12.2</v>
       </c>
       <c r="O447">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P447">
         <v>7.1</v>
@@ -16169,7 +16175,7 @@
         <v>16.8</v>
       </c>
       <c r="O453">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="P453">
         <v>15.6</v>
@@ -16189,7 +16195,7 @@
         <v>3</v>
       </c>
       <c r="E454">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="F454">
         <v>4</v>
@@ -16239,7 +16245,7 @@
         <v>3.1</v>
       </c>
       <c r="E455">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="F455">
         <v>4.2</v>
@@ -16436,7 +16442,7 @@
         <v>2.9</v>
       </c>
       <c r="E459">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="F459">
         <v>4</v>
@@ -16500,6 +16506,9 @@
       <c r="K460">
         <v>3.7</v>
       </c>
+      <c r="L460">
+        <v>13.1</v>
+      </c>
       <c r="M460">
         <v>14.7</v>
       </c>
@@ -16527,7 +16536,7 @@
         <v>2.8</v>
       </c>
       <c r="E461">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F461">
         <v>3.7</v>
@@ -16543,6 +16552,9 @@
       </c>
       <c r="K461">
         <v>3.7</v>
+      </c>
+      <c r="L461">
+        <v>12.9</v>
       </c>
       <c r="M461">
         <v>14.7</v>
@@ -16588,6 +16600,9 @@
       <c r="K462">
         <v>4.2</v>
       </c>
+      <c r="L462">
+        <v>12.4</v>
+      </c>
       <c r="M462">
         <v>14.6</v>
       </c>
@@ -16608,15 +16623,21 @@
       <c r="B463">
         <v>5.9</v>
       </c>
+      <c r="C463">
+        <v>4.7</v>
+      </c>
       <c r="D463">
         <v>2.9</v>
       </c>
       <c r="E463">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="F463">
         <v>3.7</v>
       </c>
+      <c r="G463">
+        <v>4.8</v>
+      </c>
       <c r="H463">
         <v>5.9</v>
       </c>
@@ -16626,6 +16647,12 @@
       <c r="K463">
         <v>4.8</v>
       </c>
+      <c r="L463">
+        <v>10.4</v>
+      </c>
+      <c r="M463">
+        <v>14.1</v>
+      </c>
       <c r="N463">
         <v>14.4</v>
       </c>
@@ -16634,6 +16661,49 @@
       </c>
       <c r="P463">
         <v>10.3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16">
+      <c r="A464" t="s">
+        <v>478</v>
+      </c>
+      <c r="B464">
+        <v>5.4</v>
+      </c>
+      <c r="D464">
+        <v>2.8</v>
+      </c>
+      <c r="E464">
+        <v>7.6</v>
+      </c>
+      <c r="F464">
+        <v>3.3</v>
+      </c>
+      <c r="H464">
+        <v>5.8</v>
+      </c>
+      <c r="I464">
+        <v>4.5</v>
+      </c>
+      <c r="K464">
+        <v>4.4</v>
+      </c>
+      <c r="N464">
+        <v>14.3</v>
+      </c>
+      <c r="O464">
+        <v>4.4</v>
+      </c>
+      <c r="P464">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>479</v>
+      </c>
+      <c r="B465">
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>

--- a/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
+++ b/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
@@ -16210,7 +16210,7 @@
         <v>6.3</v>
       </c>
       <c r="J454">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K454">
         <v>3.8</v>
@@ -16360,7 +16360,7 @@
         <v>5.9</v>
       </c>
       <c r="J457">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K457">
         <v>3.8</v>
@@ -16503,6 +16503,9 @@
       <c r="I460">
         <v>5.4</v>
       </c>
+      <c r="J460">
+        <v>2</v>
+      </c>
       <c r="K460">
         <v>3.7</v>
       </c>
@@ -16644,6 +16647,9 @@
       <c r="I463">
         <v>4.8</v>
       </c>
+      <c r="J463">
+        <v>1.9</v>
+      </c>
       <c r="K463">
         <v>4.8</v>
       </c>
@@ -16670,6 +16676,9 @@
       <c r="B464">
         <v>5.4</v>
       </c>
+      <c r="C464">
+        <v>4.6</v>
+      </c>
       <c r="D464">
         <v>2.8</v>
       </c>
@@ -16679,6 +16688,9 @@
       <c r="F464">
         <v>3.3</v>
       </c>
+      <c r="G464">
+        <v>4.8</v>
+      </c>
       <c r="H464">
         <v>5.8</v>
       </c>
@@ -16688,6 +16700,9 @@
       <c r="K464">
         <v>4.4</v>
       </c>
+      <c r="L464">
+        <v>12.1</v>
+      </c>
       <c r="N464">
         <v>14.3</v>
       </c>
@@ -16698,12 +16713,18 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:16">
       <c r="A465" t="s">
         <v>479</v>
       </c>
       <c r="B465">
         <v>5.2</v>
+      </c>
+      <c r="F465">
+        <v>2.8</v>
+      </c>
+      <c r="P465">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
+++ b/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
@@ -16703,6 +16703,9 @@
       <c r="L464">
         <v>12.1</v>
       </c>
+      <c r="M464">
+        <v>13.7</v>
+      </c>
       <c r="N464">
         <v>14.3</v>
       </c>
@@ -16720,8 +16723,29 @@
       <c r="B465">
         <v>5.2</v>
       </c>
+      <c r="D465">
+        <v>2.8</v>
+      </c>
+      <c r="E465">
+        <v>7.5</v>
+      </c>
       <c r="F465">
         <v>2.8</v>
+      </c>
+      <c r="H465">
+        <v>5.8</v>
+      </c>
+      <c r="I465">
+        <v>4.4</v>
+      </c>
+      <c r="K465">
+        <v>4.1</v>
+      </c>
+      <c r="N465">
+        <v>12.3</v>
+      </c>
+      <c r="O465">
+        <v>4.3</v>
       </c>
       <c r="P465">
         <v>9.5</v>

--- a/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
+++ b/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="481">
   <si>
     <t>Serie</t>
   </si>
@@ -1454,6 +1454,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P465"/>
+  <dimension ref="A1:P466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16723,6 +16726,9 @@
       <c r="B465">
         <v>5.2</v>
       </c>
+      <c r="C465">
+        <v>4.5</v>
+      </c>
       <c r="D465">
         <v>2.8</v>
       </c>
@@ -16741,6 +16747,9 @@
       <c r="K465">
         <v>4.1</v>
       </c>
+      <c r="L465">
+        <v>12</v>
+      </c>
       <c r="N465">
         <v>12.3</v>
       </c>
@@ -16749,6 +16758,20 @@
       </c>
       <c r="P465">
         <v>9.5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16">
+      <c r="A466" t="s">
+        <v>480</v>
+      </c>
+      <c r="B466">
+        <v>4.8</v>
+      </c>
+      <c r="F466">
+        <v>3</v>
+      </c>
+      <c r="P466">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
+++ b/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
@@ -16357,7 +16357,7 @@
         <v>4.8</v>
       </c>
       <c r="H457">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="I457">
         <v>5.9</v>
@@ -16454,7 +16454,7 @@
         <v>4.8</v>
       </c>
       <c r="H459">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I459">
         <v>5.7</v>
@@ -16645,7 +16645,7 @@
         <v>4.8</v>
       </c>
       <c r="H463">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I463">
         <v>4.8</v>
@@ -16695,7 +16695,7 @@
         <v>4.8</v>
       </c>
       <c r="H464">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I464">
         <v>4.5</v>
@@ -16738,6 +16738,9 @@
       <c r="F465">
         <v>2.8</v>
       </c>
+      <c r="G465">
+        <v>4.6</v>
+      </c>
       <c r="H465">
         <v>5.8</v>
       </c>
@@ -16749,6 +16752,9 @@
       </c>
       <c r="L465">
         <v>12</v>
+      </c>
+      <c r="M465">
+        <v>13.2</v>
       </c>
       <c r="N465">
         <v>12.3</v>
@@ -16767,8 +16773,26 @@
       <c r="B466">
         <v>4.8</v>
       </c>
+      <c r="D466">
+        <v>2.8</v>
+      </c>
       <c r="F466">
         <v>3</v>
+      </c>
+      <c r="H466">
+        <v>5.6</v>
+      </c>
+      <c r="I466">
+        <v>4.3</v>
+      </c>
+      <c r="K466">
+        <v>3.9</v>
+      </c>
+      <c r="N466">
+        <v>12.1</v>
+      </c>
+      <c r="O466">
+        <v>4.2</v>
       </c>
       <c r="P466">
         <v>10</v>
